--- a/Practical 2/rsbl20180065_si_001.xlsx
+++ b/Practical 2/rsbl20180065_si_001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikpostma/Dropbox/BIOM4025/Practicals/practical2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlaleone/Desktop/Exeter/Practical 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A95AD588-A06F-E445-B9B5-11922F5A8F77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E96B51-AFFF-5E43-8B96-8975BBFA61D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="23880" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="23880" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
-  <si>
-    <t>Subject n0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>Left hand 2D:4D ratio</t>
   </si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>.517*</t>
-  </si>
-  <si>
-    <t>sex (1 = M, 2 = F)</t>
   </si>
   <si>
     <t>Baby Cry F0 (Hz)</t>
@@ -155,6 +149,45 @@
       </rPr>
       <t xml:space="preserve">Descriptive correlation matrix reporting bivariate relationships among all measured parameters  </t>
     </r>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>baby.age</t>
+  </si>
+  <si>
+    <t>baby.weight</t>
+  </si>
+  <si>
+    <t>baby.f0</t>
+  </si>
+  <si>
+    <t>child.age</t>
+  </si>
+  <si>
+    <t>child.f0</t>
+  </si>
+  <si>
+    <t>child.weight</t>
+  </si>
+  <si>
+    <t>child.height</t>
+  </si>
+  <si>
+    <t>right.hand</t>
+  </si>
+  <si>
+    <t>left.hand</t>
   </si>
 </sst>
 </file>
@@ -271,30 +304,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -311,13 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -341,9 +352,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -381,7 +392,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -487,7 +498,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -629,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,7 +651,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,567 +670,567 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>384</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2034</v>
+      </c>
+      <c r="G2" s="1">
+        <v>246</v>
+      </c>
+      <c r="H2" s="1">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1">
+        <v>123</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.86722809541589829</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.96228929688289577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>103</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>429</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1535</v>
+      </c>
+      <c r="G3" s="1">
+        <v>292</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>102</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.96375239109449684</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.0174693619166251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>124</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>437</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2072</v>
+      </c>
+      <c r="G4" s="1">
+        <v>280</v>
+      </c>
+      <c r="H4" s="1">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1">
+        <v>120</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.0196059976420184</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.98480681528606329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1">
+        <v>118</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>412</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1601</v>
+      </c>
+      <c r="G5" s="1">
+        <v>257</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>104</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.98146374137357939</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.89444646904418235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>388</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1574</v>
+      </c>
+      <c r="G6" s="1">
+        <v>278</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>105</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.94543863771201786</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.88450927010253921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>533</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1558</v>
+      </c>
+      <c r="G7" s="1">
+        <v>312</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.99668237313958452</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.95897561213101112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>447</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2154</v>
+      </c>
+      <c r="G8" s="1">
+        <v>270</v>
+      </c>
+      <c r="H8" s="1">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1">
+        <v>130</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.91785712596199753</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.92108726130429286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>435</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2128</v>
+      </c>
+      <c r="G9" s="1">
+        <v>271</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>116</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.95077766157439836</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.89619883178308313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>121</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>399</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2112</v>
+      </c>
+      <c r="G10" s="1">
+        <v>260</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1">
+        <v>112</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.93622029554816022</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.89994736384734408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
+        <v>130</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>543</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1628</v>
+      </c>
+      <c r="G11" s="1">
+        <v>305</v>
+      </c>
+      <c r="H11" s="1">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1">
+        <v>102</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.98511407847844734</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.90664127885564971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1">
+        <v>91</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>431</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2058</v>
+      </c>
+      <c r="G12" s="1">
+        <v>273</v>
+      </c>
+      <c r="H12" s="1">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1">
+        <v>114</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.94755290230602018</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.9482342266205156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
+        <v>99</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>395</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1961</v>
+      </c>
+      <c r="G13" s="1">
+        <v>216</v>
+      </c>
+      <c r="H13" s="1">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1">
+        <v>103</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.92604562254141864</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.88803681109021815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <v>107</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>392.5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1700</v>
+      </c>
+      <c r="G14" s="1">
+        <v>254</v>
+      </c>
+      <c r="H14" s="1">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1">
+        <v>111</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.90405071334947362</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.9242446335534712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>108</v>
-      </c>
-      <c r="D2" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>384</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2034</v>
-      </c>
-      <c r="G2" s="2">
-        <v>246</v>
-      </c>
-      <c r="H2" s="2">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2">
-        <v>123</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0.86722809541589829</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0.96228929688289577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>103</v>
-      </c>
-      <c r="D3" s="5">
-        <v>6.7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>429</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1535</v>
-      </c>
-      <c r="G3" s="2">
-        <v>292</v>
-      </c>
-      <c r="H3" s="2">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2">
-        <v>102</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0.96375239109449684</v>
-      </c>
-      <c r="K3" s="8">
-        <v>1.0174693619166251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>124</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>437</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2072</v>
-      </c>
-      <c r="G4" s="2">
-        <v>280</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2">
-        <v>120</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1.0196059976420184</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0.98480681528606329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>118</v>
-      </c>
-      <c r="D5" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="E5" s="7">
-        <v>412</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1601</v>
-      </c>
-      <c r="G5" s="6">
-        <v>257</v>
-      </c>
-      <c r="H5" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="I5" s="6">
-        <v>104</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.98146374137357939</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0.89444646904418235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="C15" s="1">
+        <v>132</v>
+      </c>
+      <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>109</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5.6</v>
-      </c>
-      <c r="E6" s="3">
-        <v>388</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1574</v>
-      </c>
-      <c r="G6" s="2">
-        <v>278</v>
-      </c>
-      <c r="H6" s="2">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="E15" s="2">
+        <v>442</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1711</v>
+      </c>
+      <c r="G15" s="1">
+        <v>250</v>
+      </c>
+      <c r="H15" s="1">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1">
         <v>105</v>
       </c>
-      <c r="J6" s="8">
-        <v>0.94543863771201786</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0.88450927010253921</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>100</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>533</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1558</v>
-      </c>
-      <c r="G7" s="2">
-        <v>312</v>
-      </c>
-      <c r="H7" s="2">
-        <v>15.8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>96.5</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0.99668237313958452</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0.95897561213101112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>153</v>
-      </c>
-      <c r="D8" s="5">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>447</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2154</v>
-      </c>
-      <c r="G8" s="2">
-        <v>270</v>
-      </c>
-      <c r="H8" s="2">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2">
-        <v>130</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0.91785712596199753</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0.92108726130429286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>131</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>435</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2128</v>
-      </c>
-      <c r="G9" s="2">
-        <v>271</v>
-      </c>
-      <c r="H9" s="2">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2">
-        <v>116</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.95077766157439836</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0.89619883178308313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>121</v>
-      </c>
-      <c r="D10" s="5">
-        <v>6.7</v>
-      </c>
-      <c r="E10" s="3">
-        <v>399</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2112</v>
-      </c>
-      <c r="G10" s="2">
-        <v>260</v>
-      </c>
-      <c r="H10" s="2">
-        <v>20</v>
-      </c>
-      <c r="I10" s="2">
-        <v>112</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0.93622029554816022</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0.89994736384734408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>130</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="E11" s="3">
-        <v>543</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1628</v>
-      </c>
-      <c r="G11" s="2">
-        <v>305</v>
-      </c>
-      <c r="H11" s="6">
-        <v>14</v>
-      </c>
-      <c r="I11" s="6">
-        <v>102</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.98511407847844734</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0.90664127885564971</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>91</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>431</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2058</v>
-      </c>
-      <c r="G12" s="2">
-        <v>273</v>
-      </c>
-      <c r="H12" s="2">
-        <v>19</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="J15" s="3">
+        <v>0.92551897901248781</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.88982274199705969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>503</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2106</v>
+      </c>
+      <c r="G16" s="1">
+        <v>254</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I16" s="1">
         <v>114</v>
       </c>
-      <c r="J12" s="8">
-        <v>0.94755290230602018</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0.9482342266205156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>99</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="E13" s="3">
-        <v>395</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1961</v>
-      </c>
-      <c r="G13" s="2">
-        <v>216</v>
-      </c>
-      <c r="H13" s="2">
-        <v>15</v>
-      </c>
-      <c r="I13" s="2">
-        <v>103</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0.92604562254141864</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0.88803681109021815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>107</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="E14" s="3">
-        <v>392.5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G14" s="2">
-        <v>254</v>
-      </c>
-      <c r="H14" s="2">
-        <v>19</v>
-      </c>
-      <c r="I14" s="2">
-        <v>111</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.90405071334947362</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0.9242446335534712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>132</v>
-      </c>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>442</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1711</v>
-      </c>
-      <c r="G15" s="2">
-        <v>250</v>
-      </c>
-      <c r="H15" s="2">
-        <v>17</v>
-      </c>
-      <c r="I15" s="2">
-        <v>105</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.92551897901248781</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0.88982274199705969</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4">
-        <v>83</v>
-      </c>
-      <c r="D16" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>503</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2106</v>
-      </c>
-      <c r="G16" s="2">
-        <v>254</v>
-      </c>
-      <c r="H16" s="2">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I16" s="2">
-        <v>114</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="J16" s="3">
         <v>0.93604454285356176</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="3">
         <v>0.93997800866909054</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
     <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1250,73 +1261,73 @@
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>25</v>
+      <c r="J3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1">
         <v>8.9999999999999993E-3</v>
@@ -1342,9 +1353,9 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
@@ -1371,49 +1382,49 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13">
-        <v>15</v>
-      </c>
-      <c r="D6" s="11">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11">
-        <v>15</v>
-      </c>
-      <c r="F6" s="11">
-        <v>15</v>
-      </c>
-      <c r="G6" s="11">
-        <v>15</v>
-      </c>
-      <c r="H6" s="11">
-        <v>15</v>
-      </c>
-      <c r="I6" s="11">
-        <v>15</v>
-      </c>
-      <c r="J6" s="11">
-        <v>15</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6">
+        <v>15</v>
+      </c>
+      <c r="J6" s="6">
+        <v>15</v>
+      </c>
+      <c r="K6" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="1">
@@ -1439,75 +1450,74 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="H8" s="18">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="I8" s="18">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="J8" s="18">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="K8" s="18">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13">
-        <v>15</v>
-      </c>
-      <c r="E9" s="11">
-        <v>15</v>
-      </c>
-      <c r="F9" s="11">
-        <v>15</v>
-      </c>
-      <c r="G9" s="11">
-        <v>15</v>
-      </c>
-      <c r="H9" s="11">
-        <v>15</v>
-      </c>
-      <c r="I9" s="11">
-        <v>15</v>
-      </c>
-      <c r="J9" s="11">
-        <v>15</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="C9" s="6">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6">
+        <v>15</v>
+      </c>
+      <c r="I9" s="6">
+        <v>15</v>
+      </c>
+      <c r="J9" s="6">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>8.9999999999999993E-3</v>
@@ -1515,14 +1525,14 @@
       <c r="D10" s="1">
         <v>-0.376</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>-0.16900000000000001</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1">
         <v>-0.224</v>
@@ -1531,7 +1541,7 @@
         <v>-0.27600000000000002</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K10" s="1">
         <v>0.16</v>
@@ -1539,7 +1549,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
         <v>0.97499999999999998</v>
@@ -1547,7 +1557,7 @@
       <c r="D11" s="1">
         <v>0.16700000000000001</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="1">
         <v>0.54600000000000004</v>
       </c>
@@ -1568,44 +1578,44 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="11">
-        <v>15</v>
-      </c>
-      <c r="D12" s="11">
-        <v>15</v>
-      </c>
-      <c r="E12" s="13">
-        <v>15</v>
-      </c>
-      <c r="F12" s="11">
-        <v>15</v>
-      </c>
-      <c r="G12" s="11">
-        <v>15</v>
-      </c>
-      <c r="H12" s="11">
-        <v>15</v>
-      </c>
-      <c r="I12" s="11">
-        <v>15</v>
-      </c>
-      <c r="J12" s="11">
-        <v>15</v>
-      </c>
-      <c r="K12" s="11">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6">
+        <v>15</v>
+      </c>
+      <c r="I12" s="6">
+        <v>15</v>
+      </c>
+      <c r="J12" s="6">
+        <v>15</v>
+      </c>
+      <c r="K12" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>0.128</v>
@@ -1616,17 +1626,17 @@
       <c r="E13" s="1">
         <v>-0.16900000000000001</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>-0.40899999999999997</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1">
         <v>-0.308</v>
@@ -1637,7 +1647,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
         <v>0.65</v>
@@ -1648,7 +1658,7 @@
       <c r="E14" s="1">
         <v>0.54600000000000004</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="1">
         <v>0.13</v>
       </c>
@@ -1666,44 +1676,44 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="11">
-        <v>15</v>
-      </c>
-      <c r="D15" s="11">
-        <v>15</v>
-      </c>
-      <c r="E15" s="11">
-        <v>15</v>
-      </c>
-      <c r="F15" s="13">
-        <v>15</v>
-      </c>
-      <c r="G15" s="11">
-        <v>15</v>
-      </c>
-      <c r="H15" s="11">
-        <v>15</v>
-      </c>
-      <c r="I15" s="11">
-        <v>15</v>
-      </c>
-      <c r="J15" s="11">
-        <v>15</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8">
+        <v>15</v>
+      </c>
+      <c r="G15" s="6">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6">
+        <v>15</v>
+      </c>
+      <c r="J15" s="6">
+        <v>15</v>
+      </c>
+      <c r="K15" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
         <v>0.13100000000000001</v>
@@ -1712,12 +1722,12 @@
         <v>1.6E-2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1">
         <v>-0.40899999999999997</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="7">
         <v>1</v>
       </c>
       <c r="H16" s="1">
@@ -1727,7 +1737,7 @@
         <v>-0.251</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" s="1">
         <v>0.40200000000000002</v>
@@ -1735,7 +1745,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1">
         <v>0.64200000000000002</v>
@@ -1749,7 +1759,7 @@
       <c r="F17" s="1">
         <v>0.13</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="1">
         <v>0.51200000000000001</v>
       </c>
@@ -1764,44 +1774,44 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="11">
-        <v>15</v>
-      </c>
-      <c r="D18" s="11">
-        <v>15</v>
-      </c>
-      <c r="E18" s="11">
-        <v>15</v>
-      </c>
-      <c r="F18" s="11">
-        <v>15</v>
-      </c>
-      <c r="G18" s="13">
-        <v>15</v>
-      </c>
-      <c r="H18" s="11">
-        <v>15</v>
-      </c>
-      <c r="I18" s="11">
-        <v>15</v>
-      </c>
-      <c r="J18" s="11">
-        <v>15</v>
-      </c>
-      <c r="K18" s="11">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8">
+        <v>15</v>
+      </c>
+      <c r="H18" s="6">
+        <v>15</v>
+      </c>
+      <c r="I18" s="6">
+        <v>15</v>
+      </c>
+      <c r="J18" s="6">
+        <v>15</v>
+      </c>
+      <c r="K18" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>0.18</v>
@@ -1813,16 +1823,16 @@
         <v>-0.224</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1">
         <v>-0.184</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1">
         <v>-0.14099999999999999</v>
@@ -1833,7 +1843,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1">
         <v>0.52200000000000002</v>
@@ -1850,7 +1860,7 @@
       <c r="G20" s="1">
         <v>0.51200000000000001</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="1">
         <v>0</v>
       </c>
@@ -1862,44 +1872,44 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="11">
-        <v>15</v>
-      </c>
-      <c r="D21" s="11">
-        <v>15</v>
-      </c>
-      <c r="E21" s="11">
-        <v>15</v>
-      </c>
-      <c r="F21" s="11">
-        <v>15</v>
-      </c>
-      <c r="G21" s="11">
-        <v>15</v>
-      </c>
-      <c r="H21" s="13">
-        <v>15</v>
-      </c>
-      <c r="I21" s="11">
-        <v>15</v>
-      </c>
-      <c r="J21" s="11">
-        <v>15</v>
-      </c>
-      <c r="K21" s="11">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>15</v>
+      </c>
+      <c r="D21" s="6">
+        <v>15</v>
+      </c>
+      <c r="E21" s="6">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6">
+        <v>15</v>
+      </c>
+      <c r="H21" s="8">
+        <v>15</v>
+      </c>
+      <c r="I21" s="6">
+        <v>15</v>
+      </c>
+      <c r="J21" s="6">
+        <v>15</v>
+      </c>
+      <c r="K21" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>0.36499999999999999</v>
@@ -1911,15 +1921,15 @@
         <v>-0.27600000000000002</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1">
         <v>-0.251</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="12">
+        <v>18</v>
+      </c>
+      <c r="I22" s="7">
         <v>1</v>
       </c>
       <c r="J22" s="1">
@@ -1931,7 +1941,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
         <v>0.18099999999999999</v>
@@ -1951,7 +1961,7 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1">
         <v>0.13</v>
       </c>
@@ -1960,44 +1970,44 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="11">
-        <v>15</v>
-      </c>
-      <c r="D24" s="11">
-        <v>15</v>
-      </c>
-      <c r="E24" s="11">
-        <v>15</v>
-      </c>
-      <c r="F24" s="11">
-        <v>15</v>
-      </c>
-      <c r="G24" s="11">
-        <v>15</v>
-      </c>
-      <c r="H24" s="11">
-        <v>15</v>
-      </c>
-      <c r="I24" s="13">
-        <v>15</v>
-      </c>
-      <c r="J24" s="11">
-        <v>15</v>
-      </c>
-      <c r="K24" s="11">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6">
+        <v>15</v>
+      </c>
+      <c r="E24" s="6">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6">
+        <v>15</v>
+      </c>
+      <c r="G24" s="6">
+        <v>15</v>
+      </c>
+      <c r="H24" s="6">
+        <v>15</v>
+      </c>
+      <c r="I24" s="8">
+        <v>15</v>
+      </c>
+      <c r="J24" s="6">
+        <v>15</v>
+      </c>
+      <c r="K24" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
       </c>
       <c r="C25" s="1">
         <v>4.9000000000000002E-2</v>
@@ -2006,13 +2016,13 @@
         <v>-5.8000000000000003E-2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1">
         <v>-0.308</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="1">
         <v>-0.14099999999999999</v>
@@ -2020,7 +2030,7 @@
       <c r="I25" s="1">
         <v>-0.40899999999999997</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="7">
         <v>1</v>
       </c>
       <c r="K25" s="1">
@@ -2029,7 +2039,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
         <v>0.86199999999999999</v>
@@ -2052,50 +2062,50 @@
       <c r="I26" s="1">
         <v>0.13</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="1">
         <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="11">
-        <v>15</v>
-      </c>
-      <c r="D27" s="11">
-        <v>15</v>
-      </c>
-      <c r="E27" s="11">
-        <v>15</v>
-      </c>
-      <c r="F27" s="11">
-        <v>15</v>
-      </c>
-      <c r="G27" s="11">
-        <v>15</v>
-      </c>
-      <c r="H27" s="11">
-        <v>15</v>
-      </c>
-      <c r="I27" s="11">
-        <v>15</v>
-      </c>
-      <c r="J27" s="13">
-        <v>15</v>
-      </c>
-      <c r="K27" s="11">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6">
+        <v>15</v>
+      </c>
+      <c r="F27" s="6">
+        <v>15</v>
+      </c>
+      <c r="G27" s="6">
+        <v>15</v>
+      </c>
+      <c r="H27" s="6">
+        <v>15</v>
+      </c>
+      <c r="I27" s="6">
+        <v>15</v>
+      </c>
+      <c r="J27" s="8">
+        <v>15</v>
+      </c>
+      <c r="K27" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
         <v>-0.314</v>
@@ -2121,13 +2131,13 @@
       <c r="J28" s="1">
         <v>0.21299999999999999</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
         <v>0.254</v>
@@ -2153,49 +2163,49 @@
       <c r="J29" s="1">
         <v>0.44500000000000001</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="11">
-        <v>15</v>
-      </c>
-      <c r="D30" s="11">
-        <v>15</v>
-      </c>
-      <c r="E30" s="11">
-        <v>15</v>
-      </c>
-      <c r="F30" s="11">
-        <v>15</v>
-      </c>
-      <c r="G30" s="11">
-        <v>15</v>
-      </c>
-      <c r="H30" s="11">
-        <v>15</v>
-      </c>
-      <c r="I30" s="11">
-        <v>15</v>
-      </c>
-      <c r="J30" s="11">
-        <v>15</v>
-      </c>
-      <c r="K30" s="13">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6">
+        <v>15</v>
+      </c>
+      <c r="D30" s="6">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6">
+        <v>15</v>
+      </c>
+      <c r="F30" s="6">
+        <v>15</v>
+      </c>
+      <c r="G30" s="6">
+        <v>15</v>
+      </c>
+      <c r="H30" s="6">
+        <v>15</v>
+      </c>
+      <c r="I30" s="6">
+        <v>15</v>
+      </c>
+      <c r="J30" s="6">
+        <v>15</v>
+      </c>
+      <c r="K30" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
